--- a/KeHoach.xlsx
+++ b/KeHoach.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="64">
   <si>
     <t>STT</t>
   </si>
@@ -131,12 +131,6 @@
     <t xml:space="preserve"> - Tiến hành chơi thử ( bản thân và người ngoài), nghe góp ý</t>
   </si>
   <si>
-    <t xml:space="preserve">  - Bổ sung, tinh chỉnh, hoàn thiện chương trình</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dự trữ </t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Nếu xảy ra lỗi thì kiểm tra, sửa lỗi và tinh chỉnh</t>
   </si>
   <si>
@@ -194,41 +188,41 @@
     <t>30/9/2018</t>
   </si>
   <si>
-    <t>14/10/2018</t>
-  </si>
-  <si>
-    <t>15/10/2018</t>
-  </si>
-  <si>
-    <t>21/10/2018</t>
-  </si>
-  <si>
-    <t>22/10/2018</t>
-  </si>
-  <si>
-    <t>28/10/2018</t>
-  </si>
-  <si>
-    <t>29/10/2018</t>
-  </si>
-  <si>
-    <t>15/11/2018</t>
-  </si>
-  <si>
-    <t>16/11/2018</t>
-  </si>
-  <si>
-    <t>30/11/2018</t>
-  </si>
-  <si>
     <t xml:space="preserve">Design cơ bản giao diện (Windows Forms Application) </t>
+  </si>
+  <si>
+    <t>16/10/2018</t>
+  </si>
+  <si>
+    <t>17/10/2018</t>
+  </si>
+  <si>
+    <t>20/10/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  Bài báo cáo Word và thuyết trình PowerPoint</t>
+  </si>
+  <si>
+    <t>25/10/2018</t>
+  </si>
+  <si>
+    <t>26/10/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Bổ sung, tinh chỉnh, hoàn thiện chương trình</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dự trữ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Làm bài báo cáo </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +269,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -296,7 +303,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -319,11 +326,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -354,19 +387,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -654,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,49 +733,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -727,246 +784,246 @@
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="13"/>
+      <c r="D3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="17"/>
       <c r="F3" s="6">
         <v>43413</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H3" s="6">
         <v>43413</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="15"/>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="13"/>
+      <c r="D4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="17"/>
       <c r="F4" s="6">
         <v>43413</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H4" s="6">
         <v>43413</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="15"/>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="13"/>
+      <c r="D5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="17"/>
       <c r="F5" s="6">
         <v>43413</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H5" s="6">
         <v>43413</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="A6" s="16">
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="13"/>
+      <c r="D6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="17"/>
       <c r="F6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="15"/>
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="13"/>
+      <c r="D7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="17"/>
       <c r="F7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="15"/>
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="13"/>
+      <c r="D8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="17"/>
       <c r="F8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="15"/>
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="13"/>
+      <c r="D9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="17"/>
       <c r="F9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="15"/>
       <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="13"/>
+      <c r="D10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="17"/>
       <c r="F10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="15"/>
       <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="13"/>
+      <c r="D11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="17"/>
       <c r="F11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="15"/>
       <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="13"/>
+      <c r="D12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="17"/>
       <c r="F12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="I12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+      <c r="A13" s="16">
         <v>3</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -975,166 +1032,166 @@
       <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="13"/>
+      <c r="D13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="17"/>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="15"/>
       <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="13"/>
+      <c r="D14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="17"/>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="15"/>
       <c r="C15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="13"/>
+      <c r="D15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="17"/>
       <c r="F15" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="15"/>
       <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="6">
-        <v>43110</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>56</v>
+      <c r="D16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="15"/>
       <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="6">
-        <v>43110</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>56</v>
+      <c r="D17" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
+      <c r="A18" s="16">
         <v>4</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="13"/>
+        <v>37</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="17"/>
       <c r="F18" s="6">
+        <v>43110</v>
+      </c>
+      <c r="G18" s="6">
         <v>43322</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="15"/>
       <c r="C19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="13"/>
+      <c r="D19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="17"/>
       <c r="F19" s="6">
+        <v>43110</v>
+      </c>
+      <c r="G19" s="6">
         <v>43322</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="15"/>
       <c r="C20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="13"/>
+      <c r="D20" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="17"/>
       <c r="F20" s="6">
+        <v>43110</v>
+      </c>
+      <c r="G20" s="6">
         <v>43322</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="14">
+      <c r="A21" s="16">
         <v>5</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -1143,82 +1200,82 @@
       <c r="C21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>58</v>
+      <c r="D21" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="6">
+        <v>43110</v>
+      </c>
+      <c r="G21" s="6">
+        <v>43322</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="15"/>
       <c r="C22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>58</v>
+      <c r="D22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="6">
+        <v>43110</v>
+      </c>
+      <c r="G22" s="6">
+        <v>43322</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="15"/>
       <c r="C23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="6" t="s">
-        <v>59</v>
+      <c r="D23" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="6">
+        <v>43353</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="15"/>
       <c r="C24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="6" t="s">
-        <v>59</v>
+        <v>36</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="6">
+        <v>43353</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="14">
+      <c r="A25" s="16">
         <v>6</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -1227,62 +1284,62 @@
       <c r="C25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="6">
-        <v>43201</v>
+      <c r="D25" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="6">
+        <v>43353</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="15"/>
       <c r="C26" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="6">
-        <v>43201</v>
+      <c r="D26" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="6">
+        <v>43353</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="15"/>
       <c r="C27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="6">
-        <v>43201</v>
+      <c r="D27" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="6">
+        <v>43353</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="14">
+      <c r="A28" s="16">
         <v>7</v>
       </c>
       <c r="B28" s="15" t="s">
@@ -1291,137 +1348,130 @@
       <c r="C28" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="6">
-        <v>43231</v>
+      <c r="D28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="15"/>
       <c r="C29" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="6">
-        <v>43231</v>
+      <c r="D29" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="15"/>
       <c r="C30" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="6">
-        <v>43231</v>
+      <c r="D30" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="15"/>
-      <c r="C31" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="6">
-        <v>43231</v>
+      <c r="C31" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
+    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="19">
         <v>8</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="7" t="s">
+      <c r="B32" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
+      <c r="C32" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+    </row>
+    <row r="33" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
+        <v>9</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="6">
+        <v>43262</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
+  <mergeCells count="48">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
@@ -1438,6 +1488,38 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/KeHoach.xlsx
+++ b/KeHoach.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="65">
   <si>
     <t>STT</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t xml:space="preserve">Làm bài báo cáo </t>
+  </si>
+  <si>
+    <t>28/9/2018</t>
   </si>
 </sst>
 </file>
@@ -356,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -393,37 +396,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -713,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,31 +739,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="1" t="s">
         <v>40</v>
       </c>
@@ -775,19 +781,19 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="A3" s="23">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="17"/>
+      <c r="D3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="20"/>
       <c r="F3" s="6">
         <v>43413</v>
       </c>
@@ -803,15 +809,15 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="17"/>
+      <c r="D4" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="20"/>
       <c r="F4" s="6">
         <v>43413</v>
       </c>
@@ -827,15 +833,15 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="17"/>
+      <c r="D5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="20"/>
       <c r="F5" s="6">
         <v>43413</v>
       </c>
@@ -851,19 +857,19 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+      <c r="A6" s="23">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="24" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="17"/>
+      <c r="D6" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="20"/>
       <c r="F6" s="6" t="s">
         <v>48</v>
       </c>
@@ -879,15 +885,15 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="17"/>
+      <c r="D7" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="20"/>
       <c r="F7" s="6" t="s">
         <v>48</v>
       </c>
@@ -903,15 +909,15 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="17"/>
+      <c r="D8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="20"/>
       <c r="F8" s="6" t="s">
         <v>48</v>
       </c>
@@ -927,15 +933,15 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="17"/>
+      <c r="D9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="20"/>
       <c r="F9" s="6" t="s">
         <v>48</v>
       </c>
@@ -951,15 +957,15 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="17"/>
+      <c r="D10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="20"/>
       <c r="F10" s="6" t="s">
         <v>48</v>
       </c>
@@ -975,15 +981,15 @@
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="17"/>
+      <c r="D11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="20"/>
       <c r="F11" s="6" t="s">
         <v>48</v>
       </c>
@@ -999,15 +1005,15 @@
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="17"/>
+      <c r="D12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="20"/>
       <c r="F12" s="6" t="s">
         <v>48</v>
       </c>
@@ -1023,395 +1029,455 @@
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+      <c r="A13" s="23">
         <v>3</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="24" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="17"/>
+      <c r="D13" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="20"/>
       <c r="F13" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="17"/>
+      <c r="D14" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="20"/>
       <c r="F14" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="17"/>
+      <c r="D15" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="20"/>
       <c r="F15" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="H15" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="17"/>
+      <c r="D16" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="20"/>
       <c r="F16" s="12" t="s">
         <v>52</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="H16" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="17"/>
+      <c r="D17" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="20"/>
       <c r="F17" s="12" t="s">
         <v>52</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="H17" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
+      <c r="A18" s="23">
         <v>4</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="17"/>
+      <c r="D18" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="20"/>
       <c r="F18" s="6">
         <v>43110</v>
       </c>
       <c r="G18" s="6">
         <v>43322</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="H18" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="17"/>
+      <c r="D19" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="20"/>
       <c r="F19" s="6">
         <v>43110</v>
       </c>
       <c r="G19" s="6">
         <v>43322</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="H19" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="17"/>
+      <c r="D20" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="20"/>
       <c r="F20" s="6">
         <v>43110</v>
       </c>
       <c r="G20" s="6">
         <v>43322</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="6">
+        <v>43169</v>
+      </c>
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
+      <c r="A21" s="23">
         <v>5</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="17"/>
+      <c r="D21" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="20"/>
       <c r="F21" s="6">
         <v>43110</v>
       </c>
       <c r="G21" s="6">
         <v>43322</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="6">
+        <v>43169</v>
+      </c>
       <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="17"/>
+      <c r="D22" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="20"/>
       <c r="F22" s="6">
         <v>43110</v>
       </c>
       <c r="G22" s="6">
         <v>43322</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="H22" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="6">
+        <v>43169</v>
+      </c>
       <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="17"/>
+      <c r="D23" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="20"/>
       <c r="F23" s="6">
         <v>43353</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="H23" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="6">
+        <v>43169</v>
+      </c>
       <c r="J23" s="7"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="17"/>
+      <c r="D24" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="20"/>
       <c r="F24" s="6">
         <v>43353</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="H24" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="6">
+        <v>43169</v>
+      </c>
       <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="16">
+      <c r="A25" s="23">
         <v>6</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="17"/>
+      <c r="D25" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="20"/>
       <c r="F25" s="6">
         <v>43353</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="H25" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="6">
+        <v>43169</v>
+      </c>
       <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="17"/>
+      <c r="D26" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="20"/>
       <c r="F26" s="6">
         <v>43353</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="H26" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="6">
+        <v>43169</v>
+      </c>
       <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="17"/>
+      <c r="D27" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="20"/>
       <c r="F27" s="6">
         <v>43353</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="H27" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" s="6">
+        <v>43169</v>
+      </c>
       <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="16">
+      <c r="A28" s="23">
         <v>7</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="17"/>
+      <c r="D28" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="20"/>
       <c r="F28" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="7"/>
+      <c r="H28" s="14"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="17"/>
+      <c r="D29" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="20"/>
       <c r="F29" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="7"/>
+      <c r="H29" s="14"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="15"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="17"/>
+      <c r="D30" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="20"/>
       <c r="F30" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" s="14"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="20" t="s">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="17"/>
+      <c r="D31" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="20"/>
       <c r="F31" s="6" t="s">
         <v>56</v>
       </c>
@@ -1423,28 +1489,28 @@
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
+      <c r="A32" s="15">
         <v>8</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="24" t="s">
+      <c r="D32" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="22"/>
+      <c r="F32" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
     </row>
     <row r="33" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
@@ -1456,10 +1522,10 @@
       <c r="C33" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="17"/>
+      <c r="D33" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="20"/>
       <c r="F33" s="7" t="s">
         <v>60</v>
       </c>
@@ -1472,6 +1538,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D32:E32"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
@@ -1488,38 +1586,6 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/KeHoach.xlsx
+++ b/KeHoach.xlsx
@@ -225,6 +225,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -374,9 +377,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -390,46 +390,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="D28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,31 +739,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="1" t="s">
         <v>40</v>
       </c>
@@ -781,795 +781,763 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="23">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="6">
+      <c r="D3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="22">
         <v>43413</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="22">
         <v>43413</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="6">
+      <c r="D4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="22">
         <v>43413</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="22">
         <v>43413</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="6">
+      <c r="D5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="22">
         <v>43413</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="22">
         <v>43413</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
+      <c r="A6" s="17">
         <v>2</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="6" t="s">
+      <c r="D6" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="6" t="s">
+      <c r="D7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="6" t="s">
+      <c r="D8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="6" t="s">
+      <c r="D9" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="6" t="s">
+      <c r="D10" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="6" t="s">
+      <c r="D11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="6" t="s">
+      <c r="D12" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="7"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="23">
+      <c r="A13" s="17">
         <v>3</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="7" t="s">
+      <c r="D13" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="J13" s="7"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="7" t="s">
+      <c r="D14" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="J14" s="7"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="7" t="s">
+      <c r="D15" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="J15" s="7"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="12" t="s">
+      <c r="D16" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="J16" s="7"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="12" t="s">
+      <c r="D17" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="7"/>
+      <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="23">
+      <c r="A18" s="17">
         <v>4</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="6">
+      <c r="D18" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="22">
         <v>43110</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="22">
         <v>43322</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="J18" s="7"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="6">
+      <c r="D19" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="22">
         <v>43110</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="22">
         <v>43322</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="7"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="6">
+      <c r="D20" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="22">
         <v>43110</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="22">
         <v>43322</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="22">
         <v>43169</v>
       </c>
-      <c r="J20" s="7"/>
+      <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="23">
+      <c r="A21" s="17">
         <v>5</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="6">
+      <c r="D21" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="22">
         <v>43110</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="22">
         <v>43322</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="22">
         <v>43169</v>
       </c>
-      <c r="J21" s="7"/>
+      <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
-      <c r="B22" s="24"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="6">
+      <c r="D22" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="22">
         <v>43110</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="22">
         <v>43322</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="22">
         <v>43169</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="6">
+      <c r="D23" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="22">
         <v>43353</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="22">
         <v>43169</v>
       </c>
-      <c r="J23" s="7"/>
+      <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
-      <c r="B24" s="24"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="6">
+      <c r="D24" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="22">
         <v>43353</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="22">
         <v>43169</v>
       </c>
-      <c r="J24" s="7"/>
+      <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="23">
+      <c r="A25" s="17">
         <v>6</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="6">
+      <c r="D25" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="22">
         <v>43353</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="22">
         <v>43169</v>
       </c>
-      <c r="J25" s="7"/>
+      <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="8" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="6">
+      <c r="D26" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="22">
         <v>43353</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="22">
         <v>43169</v>
       </c>
-      <c r="J26" s="7"/>
+      <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="8" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="6">
+      <c r="D27" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="22">
         <v>43353</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="22">
         <v>43169</v>
       </c>
-      <c r="J27" s="7"/>
+      <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="23">
+      <c r="A28" s="17">
         <v>7</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="6" t="s">
+      <c r="D28" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="9" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="6" t="s">
+      <c r="D29" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="8" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="6" t="s">
+      <c r="D30" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="16" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="6" t="s">
+      <c r="D31" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="18"/>
+      <c r="F31" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="A32" s="12">
         <v>8</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="18" t="s">
+      <c r="D32" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="12"/>
     </row>
     <row r="33" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
+      <c r="A33" s="9">
         <v>9</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="7" t="s">
+      <c r="D33" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="22">
         <v>43262</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D32:E32"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
@@ -1586,6 +1554,38 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/KeHoach.xlsx
+++ b/KeHoach.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="65">
   <si>
     <t>STT</t>
   </si>
@@ -225,8 +225,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -362,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -402,32 +403,35 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -719,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,31 +743,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="1" t="s">
         <v>40</v>
       </c>
@@ -781,10 +785,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
+      <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -794,23 +798,23 @@
         <v>39</v>
       </c>
       <c r="E3" s="18"/>
-      <c r="F3" s="22">
+      <c r="F3" s="15">
         <v>43413</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="24">
         <v>43413</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="24" t="s">
         <v>47</v>
       </c>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
@@ -818,23 +822,23 @@
         <v>39</v>
       </c>
       <c r="E4" s="18"/>
-      <c r="F4" s="22">
+      <c r="F4" s="15">
         <v>43413</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="24">
         <v>43413</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="24" t="s">
         <v>47</v>
       </c>
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
@@ -842,25 +846,25 @@
         <v>39</v>
       </c>
       <c r="E5" s="18"/>
-      <c r="F5" s="22">
+      <c r="F5" s="15">
         <v>43413</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="24">
         <v>43413</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="24" t="s">
         <v>45</v>
       </c>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+      <c r="A6" s="21">
         <v>2</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="22" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -870,23 +874,23 @@
         <v>39</v>
       </c>
       <c r="E6" s="18"/>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="24" t="s">
         <v>50</v>
       </c>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
@@ -894,23 +898,23 @@
         <v>39</v>
       </c>
       <c r="E7" s="18"/>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="24" t="s">
         <v>50</v>
       </c>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
@@ -918,23 +922,23 @@
         <v>39</v>
       </c>
       <c r="E8" s="18"/>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="24" t="s">
         <v>50</v>
       </c>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
@@ -942,23 +946,23 @@
         <v>39</v>
       </c>
       <c r="E9" s="18"/>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="24" t="s">
         <v>50</v>
       </c>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
@@ -966,23 +970,23 @@
         <v>39</v>
       </c>
       <c r="E10" s="18"/>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="24" t="s">
         <v>51</v>
       </c>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
@@ -990,23 +994,23 @@
         <v>39</v>
       </c>
       <c r="E11" s="18"/>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="24" t="s">
         <v>51</v>
       </c>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1014,25 +1018,25 @@
         <v>39</v>
       </c>
       <c r="E12" s="18"/>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="24" t="s">
         <v>51</v>
       </c>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
+      <c r="A13" s="21">
         <v>3</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1042,23 +1046,23 @@
         <v>39</v>
       </c>
       <c r="E13" s="18"/>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="24" t="s">
         <v>64</v>
       </c>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
@@ -1066,23 +1070,23 @@
         <v>39</v>
       </c>
       <c r="E14" s="18"/>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="24" t="s">
         <v>64</v>
       </c>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="5" t="s">
         <v>17</v>
       </c>
@@ -1090,23 +1094,23 @@
         <v>39</v>
       </c>
       <c r="E15" s="18"/>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="24" t="s">
         <v>64</v>
       </c>
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
@@ -1114,23 +1118,23 @@
         <v>39</v>
       </c>
       <c r="E16" s="18"/>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="24" t="s">
         <v>64</v>
       </c>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
@@ -1138,25 +1142,25 @@
         <v>39</v>
       </c>
       <c r="E17" s="18"/>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="24" t="s">
         <v>64</v>
       </c>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
+      <c r="A18" s="21">
         <v>4</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1166,23 +1170,23 @@
         <v>39</v>
       </c>
       <c r="E18" s="18"/>
-      <c r="F18" s="22">
+      <c r="F18" s="15">
         <v>43110</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="15">
         <v>43322</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="24" t="s">
         <v>64</v>
       </c>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="5" t="s">
         <v>21</v>
       </c>
@@ -1190,23 +1194,23 @@
         <v>39</v>
       </c>
       <c r="E19" s="18"/>
-      <c r="F19" s="22">
+      <c r="F19" s="15">
         <v>43110</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="15">
         <v>43322</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="24" t="s">
         <v>64</v>
       </c>
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="5" t="s">
         <v>22</v>
       </c>
@@ -1214,25 +1218,25 @@
         <v>39</v>
       </c>
       <c r="E20" s="18"/>
-      <c r="F20" s="22">
+      <c r="F20" s="15">
         <v>43110</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="15">
         <v>43322</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="24">
         <v>43169</v>
       </c>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
+      <c r="A21" s="21">
         <v>5</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1242,23 +1246,23 @@
         <v>39</v>
       </c>
       <c r="E21" s="18"/>
-      <c r="F21" s="22">
+      <c r="F21" s="15">
         <v>43110</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="15">
         <v>43322</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="24">
         <v>43169</v>
       </c>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="5" t="s">
         <v>25</v>
       </c>
@@ -1266,23 +1270,23 @@
         <v>39</v>
       </c>
       <c r="E22" s="18"/>
-      <c r="F22" s="22">
+      <c r="F22" s="15">
         <v>43110</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="15">
         <v>43322</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="24">
         <v>43169</v>
       </c>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="5" t="s">
         <v>26</v>
       </c>
@@ -1290,23 +1294,23 @@
         <v>39</v>
       </c>
       <c r="E23" s="18"/>
-      <c r="F23" s="22">
+      <c r="F23" s="15">
         <v>43353</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="24">
         <v>43169</v>
       </c>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="5" t="s">
         <v>36</v>
       </c>
@@ -1314,25 +1318,25 @@
         <v>39</v>
       </c>
       <c r="E24" s="18"/>
-      <c r="F24" s="22">
+      <c r="F24" s="15">
         <v>43353</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="24">
         <v>43169</v>
       </c>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="17">
+      <c r="A25" s="21">
         <v>6</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -1342,23 +1346,23 @@
         <v>39</v>
       </c>
       <c r="E25" s="18"/>
-      <c r="F25" s="22">
+      <c r="F25" s="15">
         <v>43353</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="24">
         <v>43169</v>
       </c>
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="7" t="s">
         <v>29</v>
       </c>
@@ -1366,23 +1370,23 @@
         <v>39</v>
       </c>
       <c r="E26" s="18"/>
-      <c r="F26" s="22">
+      <c r="F26" s="15">
         <v>43353</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="24">
         <v>43169</v>
       </c>
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="7" t="s">
         <v>30</v>
       </c>
@@ -1390,25 +1394,25 @@
         <v>39</v>
       </c>
       <c r="E27" s="18"/>
-      <c r="F27" s="22">
+      <c r="F27" s="15">
         <v>43353</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="24">
         <v>43169</v>
       </c>
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="17">
+      <c r="A28" s="21">
         <v>7</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -1418,19 +1422,23 @@
         <v>39</v>
       </c>
       <c r="E28" s="18"/>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
+      <c r="H28" s="24">
+        <v>43291</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="8" t="s">
         <v>33</v>
       </c>
@@ -1438,19 +1446,23 @@
         <v>39</v>
       </c>
       <c r="E29" s="18"/>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
+      <c r="H29" s="24">
+        <v>43291</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="7" t="s">
         <v>34</v>
       </c>
@@ -1458,19 +1470,23 @@
         <v>39</v>
       </c>
       <c r="E30" s="18"/>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
+      <c r="H30" s="24">
+        <v>43291</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="13" t="s">
         <v>61</v>
       </c>
@@ -1478,14 +1494,18 @@
         <v>39</v>
       </c>
       <c r="E31" s="18"/>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
+      <c r="H31" s="24">
+        <v>43291</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1502,14 +1522,14 @@
         <v>39</v>
       </c>
       <c r="E32" s="20"/>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G32" s="23" t="s">
+      <c r="G32" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
       <c r="J32" s="12"/>
     </row>
     <row r="33" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -1526,18 +1546,50 @@
         <v>39</v>
       </c>
       <c r="E33" s="18"/>
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="15">
         <v>43262</v>
       </c>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
       <c r="J33" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D32:E32"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
@@ -1554,38 +1606,6 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/KeHoach.xlsx
+++ b/KeHoach.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="65">
   <si>
     <t>STT</t>
   </si>
@@ -227,7 +227,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -409,31 +409,31 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,31 +743,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="1" t="s">
         <v>40</v>
       </c>
@@ -785,725 +785,725 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+      <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="18"/>
+      <c r="D3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="21"/>
       <c r="F3" s="15">
         <v>43413</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="17">
         <v>43413</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="17" t="s">
         <v>47</v>
       </c>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="18"/>
+      <c r="D4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="21"/>
       <c r="F4" s="15">
         <v>43413</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="17">
         <v>43413</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="17" t="s">
         <v>47</v>
       </c>
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="18"/>
+      <c r="D5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="21"/>
       <c r="F5" s="15">
         <v>43413</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="17">
         <v>43413</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="17" t="s">
         <v>45</v>
       </c>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <v>2</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="18"/>
+      <c r="D6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="21"/>
       <c r="F6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="17" t="s">
         <v>50</v>
       </c>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="18"/>
+      <c r="D7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="21"/>
       <c r="F7" s="15" t="s">
         <v>48</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="17" t="s">
         <v>50</v>
       </c>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="18"/>
+      <c r="D8" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="21"/>
       <c r="F8" s="15" t="s">
         <v>48</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="17" t="s">
         <v>50</v>
       </c>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="18"/>
+      <c r="D9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="21"/>
       <c r="F9" s="15" t="s">
         <v>48</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="17" t="s">
         <v>50</v>
       </c>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="18"/>
+      <c r="D10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="21"/>
       <c r="F10" s="15" t="s">
         <v>48</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="17" t="s">
         <v>51</v>
       </c>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="18"/>
+      <c r="D11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="21"/>
       <c r="F11" s="15" t="s">
         <v>48</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="17" t="s">
         <v>51</v>
       </c>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="18"/>
+      <c r="D12" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="21"/>
       <c r="F12" s="15" t="s">
         <v>48</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="17" t="s">
         <v>51</v>
       </c>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <v>3</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="18"/>
+      <c r="D13" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="21"/>
       <c r="F13" s="15" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="17" t="s">
         <v>64</v>
       </c>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="18"/>
+      <c r="D14" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="21"/>
       <c r="F14" s="15" t="s">
         <v>52</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="17" t="s">
         <v>64</v>
       </c>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="18"/>
+      <c r="D15" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="21"/>
       <c r="F15" s="15" t="s">
         <v>52</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="17" t="s">
         <v>64</v>
       </c>
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="18"/>
+      <c r="D16" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="21"/>
       <c r="F16" s="15" t="s">
         <v>52</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="17" t="s">
         <v>64</v>
       </c>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="18"/>
+      <c r="D17" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="21"/>
       <c r="F17" s="15" t="s">
         <v>52</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="17" t="s">
         <v>64</v>
       </c>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="21">
+      <c r="A18" s="20">
         <v>4</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="18"/>
+      <c r="D18" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="21"/>
       <c r="F18" s="15">
         <v>43110</v>
       </c>
       <c r="G18" s="15">
         <v>43322</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="17" t="s">
         <v>64</v>
       </c>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="18"/>
+      <c r="D19" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="21"/>
       <c r="F19" s="15">
         <v>43110</v>
       </c>
       <c r="G19" s="15">
         <v>43322</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="H19" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="I19" s="17" t="s">
         <v>64</v>
       </c>
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="18"/>
+      <c r="D20" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="21"/>
       <c r="F20" s="15">
         <v>43110</v>
       </c>
       <c r="G20" s="15">
         <v>43322</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="H20" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="17">
         <v>43169</v>
       </c>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="21">
+      <c r="A21" s="20">
         <v>5</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="18"/>
+      <c r="D21" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="21"/>
       <c r="F21" s="15">
         <v>43110</v>
       </c>
       <c r="G21" s="15">
         <v>43322</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="17">
         <v>43169</v>
       </c>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="18"/>
+      <c r="D22" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="21"/>
       <c r="F22" s="15">
         <v>43110</v>
       </c>
       <c r="G22" s="15">
         <v>43322</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="17">
         <v>43169</v>
       </c>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="18"/>
+      <c r="D23" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="21"/>
       <c r="F23" s="15">
         <v>43353</v>
       </c>
       <c r="G23" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="H23" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="17">
         <v>43169</v>
       </c>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="18"/>
+      <c r="D24" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="21"/>
       <c r="F24" s="15">
         <v>43353</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="H24" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="17">
         <v>43169</v>
       </c>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="21">
+      <c r="A25" s="20">
         <v>6</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="18"/>
+      <c r="D25" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="21"/>
       <c r="F25" s="15">
         <v>43353</v>
       </c>
       <c r="G25" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="24" t="s">
+      <c r="H25" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="17">
         <v>43169</v>
       </c>
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="18"/>
+      <c r="D26" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="21"/>
       <c r="F26" s="15">
         <v>43353</v>
       </c>
       <c r="G26" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H26" s="24" t="s">
+      <c r="H26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="17">
         <v>43169</v>
       </c>
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="22"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="18"/>
+      <c r="D27" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="21"/>
       <c r="F27" s="15">
         <v>43353</v>
       </c>
       <c r="G27" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="H27" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="24">
+      <c r="I27" s="17">
         <v>43169</v>
       </c>
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="21">
+      <c r="A28" s="20">
         <v>7</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="18"/>
+      <c r="D28" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="21"/>
       <c r="F28" s="15" t="s">
         <v>56</v>
       </c>
       <c r="G28" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="17">
         <v>43291</v>
       </c>
-      <c r="I28" s="24" t="s">
+      <c r="I28" s="17" t="s">
         <v>56</v>
       </c>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="18"/>
+      <c r="D29" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="21"/>
       <c r="F29" s="15" t="s">
         <v>56</v>
       </c>
       <c r="G29" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="17">
         <v>43291</v>
       </c>
-      <c r="I29" s="24" t="s">
+      <c r="I29" s="17" t="s">
         <v>56</v>
       </c>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="18"/>
+      <c r="D30" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="21"/>
       <c r="F30" s="15" t="s">
         <v>56</v>
       </c>
       <c r="G30" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H30" s="17">
         <v>43291</v>
       </c>
-      <c r="I30" s="24" t="s">
+      <c r="I30" s="17" t="s">
         <v>56</v>
       </c>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="18"/>
+      <c r="D31" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="21"/>
       <c r="F31" s="15" t="s">
         <v>56</v>
       </c>
       <c r="G31" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H31" s="17">
         <v>43291</v>
       </c>
-      <c r="I31" s="24" t="s">
+      <c r="I31" s="17" t="s">
         <v>56</v>
       </c>
       <c r="J31" s="6"/>
@@ -1518,18 +1518,22 @@
       <c r="C32" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="20"/>
+      <c r="D32" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="23"/>
       <c r="F32" s="16" t="s">
         <v>57</v>
       </c>
       <c r="G32" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
+      <c r="H32" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" s="25">
+        <v>43415</v>
+      </c>
       <c r="J32" s="12"/>
     </row>
     <row r="33" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -1542,54 +1546,22 @@
       <c r="C33" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="18"/>
+      <c r="D33" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="21"/>
       <c r="F33" s="15" t="s">
         <v>60</v>
       </c>
       <c r="G33" s="15">
         <v>43262</v>
       </c>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
       <c r="J33" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D32:E32"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
@@ -1606,6 +1578,38 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/KeHoach.xlsx
+++ b/KeHoach.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="67">
   <si>
     <t>STT</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>28/9/2018</t>
+  </si>
+  <si>
+    <t>15/11/2018</t>
+  </si>
+  <si>
+    <t>27/11/2018</t>
   </si>
 </sst>
 </file>
@@ -412,28 +418,28 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -723,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,31 +749,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="1" t="s">
         <v>40</v>
       </c>
@@ -785,19 +791,19 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="20">
+      <c r="A3" s="23">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="21"/>
+      <c r="D3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="20"/>
       <c r="F3" s="15">
         <v>43413</v>
       </c>
@@ -813,15 +819,15 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="21"/>
+      <c r="D4" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="20"/>
       <c r="F4" s="15">
         <v>43413</v>
       </c>
@@ -837,15 +843,15 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="21"/>
+      <c r="D5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="20"/>
       <c r="F5" s="15">
         <v>43413</v>
       </c>
@@ -861,19 +867,19 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="20">
+      <c r="A6" s="23">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="24" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="21"/>
+      <c r="D6" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="20"/>
       <c r="F6" s="15" t="s">
         <v>48</v>
       </c>
@@ -889,15 +895,15 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="21"/>
+      <c r="D7" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="20"/>
       <c r="F7" s="15" t="s">
         <v>48</v>
       </c>
@@ -913,15 +919,15 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="21"/>
+      <c r="D8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="20"/>
       <c r="F8" s="15" t="s">
         <v>48</v>
       </c>
@@ -937,15 +943,15 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="21"/>
+      <c r="D9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="20"/>
       <c r="F9" s="15" t="s">
         <v>48</v>
       </c>
@@ -961,15 +967,15 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="21"/>
+      <c r="D10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="20"/>
       <c r="F10" s="15" t="s">
         <v>48</v>
       </c>
@@ -985,15 +991,15 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="21"/>
+      <c r="D11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="20"/>
       <c r="F11" s="15" t="s">
         <v>48</v>
       </c>
@@ -1009,15 +1015,15 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="21"/>
+      <c r="D12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="20"/>
       <c r="F12" s="15" t="s">
         <v>48</v>
       </c>
@@ -1033,19 +1039,19 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="20">
+      <c r="A13" s="23">
         <v>3</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="24" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="21"/>
+      <c r="D13" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="20"/>
       <c r="F13" s="15" t="s">
         <v>52</v>
       </c>
@@ -1061,15 +1067,15 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="21"/>
+      <c r="D14" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="20"/>
       <c r="F14" s="15" t="s">
         <v>52</v>
       </c>
@@ -1085,15 +1091,15 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="21"/>
+      <c r="D15" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="20"/>
       <c r="F15" s="15" t="s">
         <v>52</v>
       </c>
@@ -1109,15 +1115,15 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="21"/>
+      <c r="D16" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="20"/>
       <c r="F16" s="15" t="s">
         <v>52</v>
       </c>
@@ -1133,15 +1139,15 @@
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="21"/>
+      <c r="D17" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="20"/>
       <c r="F17" s="15" t="s">
         <v>52</v>
       </c>
@@ -1157,19 +1163,19 @@
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="20">
+      <c r="A18" s="23">
         <v>4</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="21"/>
+      <c r="D18" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="20"/>
       <c r="F18" s="15">
         <v>43110</v>
       </c>
@@ -1185,15 +1191,15 @@
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="21"/>
+      <c r="D19" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="20"/>
       <c r="F19" s="15">
         <v>43110</v>
       </c>
@@ -1209,15 +1215,15 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="21"/>
+      <c r="D20" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="20"/>
       <c r="F20" s="15">
         <v>43110</v>
       </c>
@@ -1233,19 +1239,19 @@
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="20">
+      <c r="A21" s="23">
         <v>5</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="21"/>
+      <c r="D21" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="20"/>
       <c r="F21" s="15">
         <v>43110</v>
       </c>
@@ -1261,15 +1267,15 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="21"/>
+      <c r="D22" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="20"/>
       <c r="F22" s="15">
         <v>43110</v>
       </c>
@@ -1285,15 +1291,15 @@
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="21"/>
+      <c r="D23" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="20"/>
       <c r="F23" s="15">
         <v>43353</v>
       </c>
@@ -1309,15 +1315,15 @@
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="21"/>
+      <c r="D24" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="20"/>
       <c r="F24" s="15">
         <v>43353</v>
       </c>
@@ -1333,19 +1339,19 @@
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="20">
+      <c r="A25" s="23">
         <v>6</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="21"/>
+      <c r="D25" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="20"/>
       <c r="F25" s="15">
         <v>43353</v>
       </c>
@@ -1361,15 +1367,15 @@
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="21"/>
+      <c r="D26" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="20"/>
       <c r="F26" s="15">
         <v>43353</v>
       </c>
@@ -1385,15 +1391,15 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="21"/>
+      <c r="D27" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="20"/>
       <c r="F27" s="15">
         <v>43353</v>
       </c>
@@ -1409,19 +1415,19 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="20">
+      <c r="A28" s="23">
         <v>7</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="21"/>
+      <c r="D28" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="20"/>
       <c r="F28" s="15" t="s">
         <v>56</v>
       </c>
@@ -1437,15 +1443,15 @@
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="21"/>
+      <c r="D29" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="20"/>
       <c r="F29" s="15" t="s">
         <v>56</v>
       </c>
@@ -1461,15 +1467,15 @@
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="21"/>
+      <c r="D30" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="20"/>
       <c r="F30" s="15" t="s">
         <v>56</v>
       </c>
@@ -1485,15 +1491,15 @@
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="19"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="21"/>
+      <c r="D31" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="20"/>
       <c r="F31" s="15" t="s">
         <v>56</v>
       </c>
@@ -1518,20 +1524,20 @@
       <c r="C32" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="23"/>
+      <c r="D32" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="22"/>
       <c r="F32" s="16" t="s">
         <v>57</v>
       </c>
       <c r="G32" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="I32" s="25">
+      <c r="I32" s="18">
         <v>43415</v>
       </c>
       <c r="J32" s="12"/>
@@ -1546,22 +1552,58 @@
       <c r="C33" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="21"/>
+      <c r="D33" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="20"/>
       <c r="F33" s="15" t="s">
         <v>60</v>
       </c>
       <c r="G33" s="15">
         <v>43262</v>
       </c>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
+      <c r="H33" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="J33" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D32:E32"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
@@ -1578,38 +1620,6 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
